--- a/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.597820059279913</v>
+        <v>4.503622440273189</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.639392791514621</v>
+        <v>3.834974945990836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.28686587368056</v>
+        <v>3.526597187871225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.900428015374965</v>
+        <v>8.680696771504358</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.162731999813344</v>
+        <v>0.1653663924139288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09653407859449536</v>
+        <v>0.1036118880018989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1055238403931968</v>
+        <v>0.1078048911031899</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2325680379351042</v>
+        <v>0.2313026139246961</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.57774517382096</v>
+        <v>12.18185172575211</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.00006214566514</v>
+        <v>11.81634136962249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.90463578060916</v>
+        <v>12.85724938208025</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.82871302312785</v>
+        <v>18.02663046845965</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4833028430983795</v>
+        <v>0.525705218860254</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3662648899657547</v>
+        <v>0.3678543624867056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4600825756707216</v>
+        <v>0.4633926142736567</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5464814294322334</v>
+        <v>0.5630528782820386</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.1253956464843622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.940722380058618</v>
+        <v>-1.940722380058615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.06407213594010788</v>
@@ -749,7 +749,7 @@
         <v>0.01183854706114248</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1281998518071909</v>
+        <v>-0.1281998518071907</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.156096335397532</v>
+        <v>-1.959353610799929</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.934567792527913</v>
+        <v>-3.02906157382843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.719231365872458</v>
+        <v>-1.809310468552881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.035106961500977</v>
+        <v>-3.617226882179158</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2929235431165466</v>
+        <v>-0.2798540129290084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2795305426374288</v>
+        <v>-0.2932330411358998</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1481935621003417</v>
+        <v>-0.1590081168152483</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2419590125085139</v>
+        <v>-0.2251906507761262</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.193557819553775</v>
+        <v>1.227559777781944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7762074393425924</v>
+        <v>0.9013664523011379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.187746674463199</v>
+        <v>2.266570944782822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.1644489450703485</v>
+        <v>0.04201246575235569</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2141012776433242</v>
+        <v>0.2231728341608517</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09414239357927702</v>
+        <v>0.108138585382473</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2274677655675021</v>
+        <v>0.2393748778810601</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0112563264621196</v>
+        <v>0.002866779292020919</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.932075082928341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-6.211590923262783</v>
+        <v>-6.21159092326278</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2489395309009209</v>
@@ -849,7 +849,7 @@
         <v>-0.4191229144830973</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3678578266021728</v>
+        <v>-0.3678578266021727</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.982729998433059</v>
+        <v>-4.955815154824831</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.124892236064049</v>
+        <v>-6.790593105188865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.550078103042853</v>
+        <v>-7.463912926258129</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.565569173280931</v>
+        <v>-9.421337703344918</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5374126663790625</v>
+        <v>-0.528907949286612</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6103364201796676</v>
+        <v>-0.5827258664617547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6636939348152986</v>
+        <v>-0.6679102036909137</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5035616227919987</v>
+        <v>-0.5041323284077589</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.278058880289929</v>
+        <v>1.357953991038108</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.257906217544988</v>
+        <v>0.9245780007420709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.5505622720364813</v>
+        <v>-0.4966404052086016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.15681034709906</v>
+        <v>-3.112921541691373</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1909081595629424</v>
+        <v>0.2293243251294244</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1885767368769723</v>
+        <v>0.1342108453685598</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.06211601977945428</v>
+        <v>-0.05968947395732713</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2091503097485047</v>
+        <v>-0.2142691601280469</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.901652491797849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.76223369468187</v>
+        <v>1.762233694681875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3204774980426771</v>
@@ -949,7 +949,7 @@
         <v>0.1953745334013123</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.09380730690832056</v>
+        <v>0.09380730690832088</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.515875681201578</v>
+        <v>2.281610792608495</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.323978505876112</v>
+        <v>2.395501347766393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.003518378860552</v>
+        <v>1.062728231554655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1187741614408044</v>
+        <v>0.1652012145067857</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1853294709702893</v>
+        <v>0.1695806009148754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1291692807719113</v>
+        <v>0.1386923079692212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06366363226777352</v>
+        <v>0.06698520400943651</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.006195037226271907</v>
+        <v>0.007372360854311383</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.832235486523983</v>
+        <v>5.730516116120869</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.203798445218658</v>
+        <v>6.329823426789849</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.692081043441948</v>
+        <v>4.701874568025052</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.241081090029015</v>
+        <v>3.394100147487168</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4945141881415637</v>
+        <v>0.480956934012768</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3941567390545021</v>
+        <v>0.4124650021254325</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3319919537520133</v>
+        <v>0.3312651756762816</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1816867437650393</v>
+        <v>0.1891651300858627</v>
       </c>
     </row>
     <row r="16">
